--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Rtn4-Lingo1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Rtn4-Lingo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.2208070463334</v>
+        <v>40.797777</v>
       </c>
       <c r="H2">
-        <v>36.2208070463334</v>
+        <v>122.393331</v>
       </c>
       <c r="I2">
-        <v>0.2624097339090501</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="J2">
-        <v>0.2624097339090501</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.899547063345691</v>
+        <v>0.9237416666666666</v>
       </c>
       <c r="N2">
-        <v>0.899547063345691</v>
+        <v>2.771225</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9776944302049534</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9776944302049534</v>
       </c>
       <c r="Q2">
-        <v>32.58232061054012</v>
+        <v>37.686606522275</v>
       </c>
       <c r="R2">
-        <v>32.58232061054012</v>
+        <v>339.179458700475</v>
       </c>
       <c r="S2">
-        <v>0.2624097339090501</v>
+        <v>0.2629246640773096</v>
       </c>
       <c r="T2">
-        <v>0.2624097339090501</v>
+        <v>0.2629246640773097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.1615960274159</v>
+        <v>40.797777</v>
       </c>
       <c r="H3">
-        <v>46.1615960274159</v>
+        <v>122.393331</v>
       </c>
       <c r="I3">
-        <v>0.3344280019734537</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="J3">
-        <v>0.3344280019734537</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.899547063345691</v>
+        <v>0.02107466666666667</v>
       </c>
       <c r="N3">
-        <v>0.899547063345691</v>
+        <v>0.063224</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.02230556979504659</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.02230556979504659</v>
       </c>
       <c r="Q3">
-        <v>41.52452814581208</v>
+        <v>0.8597995510160001</v>
       </c>
       <c r="R3">
-        <v>41.52452814581208</v>
+        <v>7.738195959144002</v>
       </c>
       <c r="S3">
-        <v>0.3344280019734537</v>
+        <v>0.005998484050058666</v>
       </c>
       <c r="T3">
-        <v>0.3344280019734537</v>
+        <v>0.005998484050058667</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,238 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.6490887720804</v>
+        <v>46.219831</v>
       </c>
       <c r="H4">
-        <v>55.6490887720804</v>
+        <v>138.659493</v>
       </c>
       <c r="I4">
-        <v>0.4031622641174961</v>
+        <v>0.3046632285488233</v>
       </c>
       <c r="J4">
-        <v>0.4031622641174961</v>
+        <v>0.3046632285488233</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.899547063345691</v>
+        <v>0.9237416666666666</v>
       </c>
       <c r="N4">
-        <v>0.899547063345691</v>
+        <v>2.771225</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9776944302049534</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9776944302049534</v>
       </c>
       <c r="Q4">
-        <v>50.05897438278858</v>
+        <v>42.69518372099166</v>
       </c>
       <c r="R4">
-        <v>50.05897438278858</v>
+        <v>384.256653488925</v>
       </c>
       <c r="S4">
-        <v>0.4031622641174961</v>
+        <v>0.2978675416404433</v>
       </c>
       <c r="T4">
-        <v>0.4031622641174961</v>
+        <v>0.2978675416404433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>46.219831</v>
+      </c>
+      <c r="H5">
+        <v>138.659493</v>
+      </c>
+      <c r="I5">
+        <v>0.3046632285488233</v>
+      </c>
+      <c r="J5">
+        <v>0.3046632285488233</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.02107466666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.063224</v>
+      </c>
+      <c r="O5">
+        <v>0.02230556979504659</v>
+      </c>
+      <c r="P5">
+        <v>0.02230556979504659</v>
+      </c>
+      <c r="Q5">
+        <v>0.9740675317146668</v>
+      </c>
+      <c r="R5">
+        <v>8.766607785432001</v>
+      </c>
+      <c r="S5">
+        <v>0.006795686908380009</v>
+      </c>
+      <c r="T5">
+        <v>0.006795686908380009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>64.69033266666666</v>
+      </c>
+      <c r="H6">
+        <v>194.070998</v>
+      </c>
+      <c r="I6">
+        <v>0.4264136233238083</v>
+      </c>
+      <c r="J6">
+        <v>0.4264136233238083</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.9237416666666666</v>
+      </c>
+      <c r="N6">
+        <v>2.771225</v>
+      </c>
+      <c r="O6">
+        <v>0.9776944302049534</v>
+      </c>
+      <c r="P6">
+        <v>0.9776944302049534</v>
+      </c>
+      <c r="Q6">
+        <v>59.75715571472777</v>
+      </c>
+      <c r="R6">
+        <v>537.81440143255</v>
+      </c>
+      <c r="S6">
+        <v>0.4169022244872004</v>
+      </c>
+      <c r="T6">
+        <v>0.4169022244872004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>64.69033266666666</v>
+      </c>
+      <c r="H7">
+        <v>194.070998</v>
+      </c>
+      <c r="I7">
+        <v>0.4264136233238083</v>
+      </c>
+      <c r="J7">
+        <v>0.4264136233238083</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.02107466666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.063224</v>
+      </c>
+      <c r="O7">
+        <v>0.02230556979504659</v>
+      </c>
+      <c r="P7">
+        <v>0.02230556979504659</v>
+      </c>
+      <c r="Q7">
+        <v>1.363327197505778</v>
+      </c>
+      <c r="R7">
+        <v>12.269944777552</v>
+      </c>
+      <c r="S7">
+        <v>0.009511398836607912</v>
+      </c>
+      <c r="T7">
+        <v>0.009511398836607912</v>
       </c>
     </row>
   </sheetData>
